--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsiddiqsunny/Documents/Notre Dame/Research/SecurityEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262004E3-F1D0-E048-B137-9DCD33886EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130070B8-4D81-234E-B704-FC6D35324525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{E3FB6B4D-BFE5-BF42-BAE6-66D1841BF3B8}"/>
   </bookViews>
@@ -542,10 +542,13 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -624,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -651,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -659,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -672,7 +675,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -686,7 +689,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -695,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -705,7 +708,7 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -722,11 +725,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3</v>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsiddiqsunny/Documents/Notre Dame/Research/SecurityEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130070B8-4D81-234E-B704-FC6D35324525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A91D2-1BBF-0849-A60F-22FAB101A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{E3FB6B4D-BFE5-BF42-BAE6-66D1841BF3B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>CWE-ID</t>
   </si>
@@ -184,10 +184,10 @@
     <t>CodeQL/Bandit</t>
   </si>
   <si>
-    <t>Analyzers</t>
-  </si>
-  <si>
     <t>Pearce \etal</t>
+  </si>
+  <si>
+    <t>CWE-095</t>
   </si>
 </sst>
 </file>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C640A27-5BFC-554F-83B2-41C29522278D}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F39" si="0">SUM(B3:E3)</f>
+        <f>SUM(B3:E3)</f>
         <v>4</v>
       </c>
       <c r="G3">
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:E4)</f>
         <v>2</v>
       </c>
       <c r="G4">
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:E5)</f>
         <v>2</v>
       </c>
       <c r="G5">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:E6)</f>
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:E7)</f>
         <v>2</v>
       </c>
       <c r="G7">
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -755,8 +755,8 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B8:E8)</f>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:E9)</f>
         <v>1</v>
       </c>
       <c r="G9">
@@ -794,10 +794,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:E10)</f>
         <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:E11)</f>
         <v>1</v>
       </c>
       <c r="G11" t="s">
@@ -848,10 +848,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -863,25 +863,25 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B12:E12)</f>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -890,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:E13)</f>
         <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:E14)</f>
         <v>1</v>
       </c>
       <c r="G14" t="s">
@@ -929,7 +929,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B15:E15)</f>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -968,11 +968,11 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B16:E16)</f>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
@@ -983,10 +983,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:E17)</f>
         <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:E18)</f>
         <v>1</v>
       </c>
       <c r="G18" t="s">
@@ -1037,61 +1037,61 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>18</v>
+        <f>SUM(B19:E19)</f>
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
       <c r="H20" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1106,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:E21)</f>
         <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B22:E22)</f>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
         <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1157,25 +1157,25 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B23:E23)</f>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1187,8 +1187,8 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B24:E24)</f>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9</v>
+        <f>SUM(B25:E25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1241,11 +1241,11 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
+        <f>SUM(B26:E26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
       </c>
       <c r="H26" t="s">
         <v>2</v>
@@ -1253,115 +1253,115 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
+        <f>SUM(B27:E27)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
+        <f>SUM(B28:E28)</f>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B29:E29)</f>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
         <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B30:E30)</f>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B31:E31)</f>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1400,41 +1400,41 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>24</v>
+        <f>SUM(B32:E32)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>SUM(B33:E33)</f>
+        <v>2</v>
+      </c>
+      <c r="G33">
         <v>24</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
       </c>
       <c r="H33" t="s">
         <v>2</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:E34)</f>
         <v>1</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1481,25 +1481,25 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <f>SUM(B35:E35)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1508,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B36:E36)</f>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
         <v>47</v>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f>SUM(B37:E37)</f>
         <v>1</v>
       </c>
       <c r="G37" t="s">
@@ -1550,7 +1550,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1565,11 +1565,11 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>15</v>
+        <f>SUM(B38:E38)</f>
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
       </c>
       <c r="H38" t="s">
         <v>2</v>
@@ -1577,28 +1577,55 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f>SUM(B39:E39)</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>SUM(B40:E40)</f>
+        <v>2</v>
+      </c>
+      <c r="G40">
         <v>21</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsiddiqsunny/Documents/Notre Dame/Research/SecurityEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A91D2-1BBF-0849-A60F-22FAB101A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB0DF8-7A3C-7C4E-89A5-33954DA858D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{E3FB6B4D-BFE5-BF42-BAE6-66D1841BF3B8}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C640A27-5BFC-554F-83B2-41C29522278D}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <f>SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F40" si="0">SUM(B2:E2)</f>
         <v>6</v>
       </c>
       <c r="G2">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G3">
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4">
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G5">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUM(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8" t="s">
@@ -779,11 +779,11 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <f>SUM(B9:E9)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -833,11 +833,11 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <f>SUM(B11:E11)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUM(B12:E12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" t="s">
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>SUM(B13:E13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" t="s">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>SUM(B14:E14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" t="s">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f>SUM(B15:E15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G15" t="s">
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <f>SUM(B16:E16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16" t="s">
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f>SUM(B17:E17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" t="s">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>SUM(B18:E18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" t="s">
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <f>SUM(B19:E19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G19" t="s">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>SUM(B20:E20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>SUM(B21:E21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" t="s">
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <f>SUM(B22:E22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" t="s">
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f>SUM(B23:E23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G23" t="s">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f>SUM(B24:E24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G24" t="s">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f>SUM(B25:E25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G25" t="s">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>SUM(B26:E26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G26">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>SUM(B27:E27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" t="s">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f>SUM(B28:E28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G28">
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f>SUM(B29:E29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G29" t="s">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f>SUM(B30:E30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" t="s">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f>SUM(B31:E31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G31" t="s">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f>SUM(B32:E32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G32" t="s">
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f>SUM(B33:E33)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G33">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>SUM(B34:E34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G34" t="s">
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <f>SUM(B35:E35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G35" t="s">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <f>SUM(B36:E36)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G36" t="s">
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f>SUM(B37:E37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G37" t="s">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f>SUM(B38:E38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G38" t="s">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <f>SUM(B39:E39)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G39">
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f>SUM(B40:E40)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G40">
